--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_9_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_9_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2710759.825111089</v>
+        <v>2706603.638803122</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -670,10 +670,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>412.2877386950441</v>
+        <v>15.64579790407967</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>140.315783973424</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -724,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>174.4070890923409</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -828,16 +828,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.6385546828073</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>57.62925832847892</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>114.7793764994862</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.4475243713015</v>
+        <v>78.43002482525293</v>
       </c>
       <c r="T4" t="n">
-        <v>222.1670476323163</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.245260737819</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.5589059457607</v>
+        <v>143.6682042974517</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>369.622867420469</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1056,7 +1056,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1071,10 +1071,10 @@
         <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
-        <v>104.4906595130011</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,25 +1104,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>149.778183905833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>33.93089591116134</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1135,13 +1135,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>12.65462538138537</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>129.4495937089304</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>19.80516901555394</v>
+        <v>19.80516901555393</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1302,16 +1302,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>72.65346538644621</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>90.06855625064044</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634815</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>146.6281161973735</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417103</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1663,10 +1663,10 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881302</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>68.41584059195273</v>
+        <v>32.26041896250234</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1773,7 +1773,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1827,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2061,10 +2061,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>273.8348290426799</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2247,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>108.3613954702478</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>91.87204320893618</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2526,7 +2526,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>42.5313457611372</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2724,16 +2724,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,13 +2766,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>176.76214411214</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2961,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>9.592641220497489</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3009,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>186.5877792298974</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3082,7 +3082,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3201,7 +3201,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>159.2661870898837</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3240,10 +3240,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>104.7950049175972</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>40.36264995190599</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3669,10 +3669,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>184.5018925095677</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>86.8894339777008</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4137,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>123.9815576456779</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1343.392606602229</v>
+        <v>538.7037775204462</v>
       </c>
       <c r="C2" t="n">
-        <v>974.430089661817</v>
+        <v>169.7412605800345</v>
       </c>
       <c r="D2" t="n">
-        <v>974.430089661817</v>
+        <v>169.7412605800345</v>
       </c>
       <c r="E2" t="n">
-        <v>974.430089661817</v>
+        <v>169.7412605800345</v>
       </c>
       <c r="F2" t="n">
-        <v>563.4441848722093</v>
+        <v>162.7957598308311</v>
       </c>
       <c r="G2" t="n">
         <v>146.9919235640839</v>
@@ -4336,19 +4336,19 @@
         <v>287.6947354520187</v>
       </c>
       <c r="L2" t="n">
-        <v>525.3175166702108</v>
+        <v>730.2783389764052</v>
       </c>
       <c r="M2" t="n">
-        <v>1166.340726290105</v>
+        <v>1371.301548596299</v>
       </c>
       <c r="N2" t="n">
-        <v>1471.81583252569</v>
+        <v>2012.324758216193</v>
       </c>
       <c r="O2" t="n">
-        <v>1758.668415689754</v>
+        <v>2287.440977532828</v>
       </c>
       <c r="P2" t="n">
-        <v>2277.553464068625</v>
+        <v>2487.745304821931</v>
       </c>
       <c r="Q2" t="n">
         <v>2589.992766140986</v>
@@ -4357,25 +4357,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S2" t="n">
-        <v>2589.992766140986</v>
+        <v>2448.259651016315</v>
       </c>
       <c r="T2" t="n">
-        <v>2589.992766140986</v>
+        <v>2236.241780077746</v>
       </c>
       <c r="U2" t="n">
-        <v>2589.992766140986</v>
+        <v>1982.600918459333</v>
       </c>
       <c r="V2" t="n">
-        <v>2258.929878797415</v>
+        <v>1651.538031115762</v>
       </c>
       <c r="W2" t="n">
-        <v>1906.161223527301</v>
+        <v>1298.769375845648</v>
       </c>
       <c r="X2" t="n">
-        <v>1906.161223527301</v>
+        <v>925.303617584568</v>
       </c>
       <c r="Y2" t="n">
-        <v>1729.99244666635</v>
+        <v>925.303617584568</v>
       </c>
     </row>
     <row r="3">
@@ -4391,19 +4391,19 @@
         <v>775.4371790282361</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669847</v>
+        <v>626.5027693669849</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615291</v>
+        <v>467.2653143615294</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884142</v>
+        <v>320.7307563884145</v>
       </c>
       <c r="G3" t="n">
-        <v>183.6293921686807</v>
+        <v>183.6293921686806</v>
       </c>
       <c r="H3" t="n">
-        <v>85.9974213009382</v>
+        <v>85.99742130093821</v>
       </c>
       <c r="I3" t="n">
         <v>51.79985532281972</v>
@@ -4412,22 +4412,22 @@
         <v>201.9455071369554</v>
       </c>
       <c r="K3" t="n">
-        <v>585.1891840496874</v>
+        <v>323.3685994072345</v>
       </c>
       <c r="L3" t="n">
-        <v>794.7800573025183</v>
+        <v>900.09141451049</v>
       </c>
       <c r="M3" t="n">
-        <v>1058.719588798006</v>
+        <v>1512.968691787245</v>
       </c>
       <c r="N3" t="n">
-        <v>1699.7427984179</v>
+        <v>1798.302562220579</v>
       </c>
       <c r="O3" t="n">
-        <v>1938.547750169359</v>
+        <v>2037.107513972038</v>
       </c>
       <c r="P3" t="n">
-        <v>2316.738101020794</v>
+        <v>2524.714615879285</v>
       </c>
       <c r="Q3" t="n">
         <v>2589.992766140986</v>
@@ -4445,7 +4445,7 @@
         <v>2023.106809259862</v>
       </c>
       <c r="V3" t="n">
-        <v>1787.954701028119</v>
+        <v>1787.95470102812</v>
       </c>
       <c r="W3" t="n">
         <v>1533.717344299918</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>595.1822762889644</v>
+        <v>783.19793202134</v>
       </c>
       <c r="C4" t="n">
-        <v>426.2460933610575</v>
+        <v>614.2617490934331</v>
       </c>
       <c r="D4" t="n">
-        <v>426.2460933610575</v>
+        <v>614.2617490934331</v>
       </c>
       <c r="E4" t="n">
-        <v>278.3329997786644</v>
+        <v>466.34865551104</v>
       </c>
       <c r="F4" t="n">
-        <v>278.3329997786644</v>
+        <v>319.4587080131296</v>
       </c>
       <c r="G4" t="n">
-        <v>110.0112273717883</v>
+        <v>319.4587080131296</v>
       </c>
       <c r="H4" t="n">
-        <v>51.79985532281972</v>
+        <v>167.7386194637149</v>
       </c>
       <c r="I4" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J4" t="n">
-        <v>54.03452733018415</v>
+        <v>54.03452733018416</v>
       </c>
       <c r="K4" t="n">
         <v>187.5436166159875</v>
@@ -4515,25 +4515,25 @@
         <v>1311.202309361123</v>
       </c>
       <c r="S4" t="n">
-        <v>1108.730062521424</v>
+        <v>1231.980062062888</v>
       </c>
       <c r="T4" t="n">
-        <v>884.3189032968623</v>
+        <v>1231.980062062888</v>
       </c>
       <c r="U4" t="n">
-        <v>595.1822762889644</v>
+        <v>1231.980062062888</v>
       </c>
       <c r="V4" t="n">
-        <v>595.1822762889644</v>
+        <v>1231.980062062888</v>
       </c>
       <c r="W4" t="n">
-        <v>595.1822762889644</v>
+        <v>1231.980062062888</v>
       </c>
       <c r="X4" t="n">
-        <v>595.1822762889644</v>
+        <v>1003.99051116487</v>
       </c>
       <c r="Y4" t="n">
-        <v>595.1822762889644</v>
+        <v>783.19793202134</v>
       </c>
     </row>
     <row r="5">
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>925.7059206193069</v>
+        <v>1294.668437559719</v>
       </c>
       <c r="C5" t="n">
         <v>925.7059206193069</v>
@@ -4567,25 +4567,25 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J5" t="n">
-        <v>189.986887110478</v>
+        <v>189.9868871104791</v>
       </c>
       <c r="K5" t="n">
-        <v>447.8319447135509</v>
+        <v>447.8319447135523</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477383</v>
+        <v>804.6133007477401</v>
       </c>
       <c r="M5" t="n">
-        <v>1233.270741187502</v>
+        <v>1233.270741187504</v>
       </c>
       <c r="N5" t="n">
-        <v>1673.478115539971</v>
+        <v>1673.478115539973</v>
       </c>
       <c r="O5" t="n">
-        <v>2075.818195082061</v>
+        <v>2075.818195082063</v>
       </c>
       <c r="P5" t="n">
-        <v>2384.705143645556</v>
+        <v>2384.705143645558</v>
       </c>
       <c r="Q5" t="n">
         <v>2568.493631507462</v>
@@ -4594,25 +4594,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.81558556073</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="T5" t="n">
-        <v>2257.170226019558</v>
+        <v>2444.873367860732</v>
       </c>
       <c r="U5" t="n">
-        <v>2003.590997961805</v>
+        <v>2444.873367860732</v>
       </c>
       <c r="V5" t="n">
-        <v>1672.528110618234</v>
+        <v>2444.873367860732</v>
       </c>
       <c r="W5" t="n">
-        <v>1672.528110618234</v>
+        <v>2444.873367860732</v>
       </c>
       <c r="X5" t="n">
-        <v>1299.062352357154</v>
+        <v>2071.407609599652</v>
       </c>
       <c r="Y5" t="n">
-        <v>925.7059206193069</v>
+        <v>1681.26827762384</v>
       </c>
     </row>
     <row r="6">
@@ -4649,25 +4649,25 @@
         <v>240.1153828096209</v>
       </c>
       <c r="K6" t="n">
-        <v>573.7192355186012</v>
+        <v>598.8031573431335</v>
       </c>
       <c r="L6" t="n">
-        <v>871.0311846349159</v>
+        <v>896.1151064594483</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.337074127241</v>
+        <v>1262.420995951774</v>
       </c>
       <c r="N6" t="n">
-        <v>1627.746635452984</v>
+        <v>1652.830557277516</v>
       </c>
       <c r="O6" t="n">
-        <v>1962.675316168515</v>
+        <v>1987.759237993047</v>
       </c>
       <c r="P6" t="n">
-        <v>2212.152044033533</v>
+        <v>2237.235965858066</v>
       </c>
       <c r="Q6" t="n">
-        <v>2536.977948259489</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="R6" t="n">
         <v>2562.061870084021</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>770.2418452737728</v>
+        <v>982.2794430485947</v>
       </c>
       <c r="C7" t="n">
-        <v>770.2418452737728</v>
+        <v>813.3432601206878</v>
       </c>
       <c r="D7" t="n">
-        <v>620.1252058614371</v>
+        <v>663.226620708352</v>
       </c>
       <c r="E7" t="n">
-        <v>472.2121122790439</v>
+        <v>515.3135271259589</v>
       </c>
       <c r="F7" t="n">
-        <v>325.3221647811336</v>
+        <v>368.4235796280485</v>
       </c>
       <c r="G7" t="n">
-        <v>157.3459760430229</v>
+        <v>200.4473908899379</v>
       </c>
       <c r="H7" t="n">
-        <v>157.3459760430229</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I7" t="n">
         <v>51.79985532281972</v>
@@ -4752,25 +4752,25 @@
         <v>1646.983670153878</v>
       </c>
       <c r="S7" t="n">
-        <v>1495.692575299501</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="T7" t="n">
-        <v>1495.692575299501</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="U7" t="n">
-        <v>1206.5747983099</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="V7" t="n">
-        <v>951.8903101040125</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="W7" t="n">
-        <v>951.8903101040125</v>
+        <v>1612.710037920382</v>
       </c>
       <c r="X7" t="n">
-        <v>951.8903101040125</v>
+        <v>1384.720487022364</v>
       </c>
       <c r="Y7" t="n">
-        <v>951.8903101040125</v>
+        <v>1163.927907878834</v>
       </c>
     </row>
     <row r="8">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>759.9995790039331</v>
+        <v>755.9562932262879</v>
       </c>
       <c r="C8" t="n">
-        <v>759.9995790039331</v>
+        <v>386.9937762858762</v>
       </c>
       <c r="D8" t="n">
-        <v>759.9995790039331</v>
+        <v>374.211326405689</v>
       </c>
       <c r="E8" t="n">
         <v>374.211326405689</v>
@@ -4810,16 +4810,16 @@
         <v>447.8319447135512</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477385</v>
+        <v>804.6133007477388</v>
       </c>
       <c r="M8" t="n">
         <v>1233.270741187503</v>
       </c>
       <c r="N8" t="n">
-        <v>1673.478115539971</v>
+        <v>1673.478115539972</v>
       </c>
       <c r="O8" t="n">
-        <v>2075.818195082061</v>
+        <v>2075.818195082062</v>
       </c>
       <c r="P8" t="n">
         <v>2384.705143645557</v>
@@ -4831,25 +4831,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.81558556073</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="T8" t="n">
-        <v>2257.170226019558</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="U8" t="n">
-        <v>2003.590997961805</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="V8" t="n">
-        <v>1872.833832599249</v>
+        <v>2258.929878797415</v>
       </c>
       <c r="W8" t="n">
-        <v>1520.065177329135</v>
+        <v>1906.161223527301</v>
       </c>
       <c r="X8" t="n">
-        <v>1146.599419068055</v>
+        <v>1532.695465266221</v>
       </c>
       <c r="Y8" t="n">
-        <v>1146.599419068055</v>
+        <v>1142.55613329041</v>
       </c>
     </row>
     <row r="9">
@@ -4877,31 +4877,31 @@
         <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.80507655065199</v>
+        <v>71.80507655065198</v>
       </c>
       <c r="I9" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J9" t="n">
-        <v>115.2852578226161</v>
+        <v>115.2852578226162</v>
       </c>
       <c r="K9" t="n">
-        <v>301.9467472258287</v>
+        <v>301.9467472258289</v>
       </c>
       <c r="L9" t="n">
-        <v>599.2586963421434</v>
+        <v>599.2586963421437</v>
       </c>
       <c r="M9" t="n">
-        <v>965.5645858344687</v>
+        <v>965.5645858344692</v>
       </c>
       <c r="N9" t="n">
-        <v>1355.974147160211</v>
+        <v>1355.974147160212</v>
       </c>
       <c r="O9" t="n">
-        <v>1996.997356780105</v>
+        <v>1690.902827875743</v>
       </c>
       <c r="P9" t="n">
-        <v>2445.212480716556</v>
+        <v>2237.235965858066</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.061870084021</v>
@@ -4938,49 +4938,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>423.2169270917367</v>
+        <v>693.2439961827737</v>
       </c>
       <c r="C10" t="n">
-        <v>423.2169270917367</v>
+        <v>693.2439961827737</v>
       </c>
       <c r="D10" t="n">
-        <v>273.1002876794009</v>
+        <v>543.1273567704379</v>
       </c>
       <c r="E10" t="n">
-        <v>125.1871940970078</v>
+        <v>395.2142631880448</v>
       </c>
       <c r="F10" t="n">
-        <v>125.1871940970078</v>
+        <v>248.3243156901345</v>
       </c>
       <c r="G10" t="n">
-        <v>51.79985532281972</v>
+        <v>248.3243156901345</v>
       </c>
       <c r="H10" t="n">
-        <v>51.79985532281972</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="I10" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080549</v>
+        <v>77.98108068080552</v>
       </c>
       <c r="K10" t="n">
-        <v>250.8417132121972</v>
+        <v>250.8417132121973</v>
       </c>
       <c r="L10" t="n">
-        <v>527.5702436225444</v>
+        <v>527.5702436225445</v>
       </c>
       <c r="M10" t="n">
-        <v>829.7308018317422</v>
+        <v>829.7308018317424</v>
       </c>
       <c r="N10" t="n">
-        <v>1130.141273750633</v>
+        <v>1130.141273750634</v>
       </c>
       <c r="O10" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P10" t="n">
-        <v>1591.80738463481</v>
+        <v>1591.807384634811</v>
       </c>
       <c r="Q10" t="n">
         <v>1646.983670153878</v>
@@ -4989,25 +4989,25 @@
         <v>1646.983670153878</v>
       </c>
       <c r="S10" t="n">
-        <v>1450.534004159847</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="T10" t="n">
-        <v>1450.534004159847</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="U10" t="n">
-        <v>1161.416227170245</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="V10" t="n">
-        <v>1161.416227170245</v>
+        <v>1392.299181947991</v>
       </c>
       <c r="W10" t="n">
-        <v>871.9990571332842</v>
+        <v>1102.882011911031</v>
       </c>
       <c r="X10" t="n">
-        <v>644.0095062352668</v>
+        <v>874.8924610130134</v>
       </c>
       <c r="Y10" t="n">
-        <v>423.2169270917367</v>
+        <v>874.8924610130134</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,40 +5053,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>484.8243144841095</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>980.1499206998682</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1577.52840832642</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
         <v>2129.438138565707</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>615.644930552589</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>465.5282911402533</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E13" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5272,10 +5272,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111715</v>
@@ -5284,46 +5284,46 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>923.0670414349511</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E16" t="n">
         <v>631.7012443408906</v>
@@ -5427,13 +5427,13 @@
         <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1616.556199993915</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1616.556199993915</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1388.566649095898</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>1167.774069952368</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="17">
@@ -5494,31 +5494,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5591,25 +5591,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>429.5088224239596</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L18" t="n">
-        <v>429.5088224239596</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M18" t="n">
-        <v>1026.887310050512</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N18" t="n">
-        <v>1654.485273605118</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>2206.395003844405</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>781.3544215660705</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>612.4182386381636</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5051450557705</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5709,16 +5709,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1411.785016437858</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1183.79546553984</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>963.0028863963103</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5785,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>924.8344286397182</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>924.8344286397182</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1552.432392194325</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2104.342122433612</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2527.96527192868</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>916.2946447138411</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>747.3584617859342</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>747.3584617859342</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>599.4453682035411</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>452.5554207056307</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>285.3593214205106</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>916.2946447138411</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5977,34 +5977,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6068,22 +6068,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913853</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.167399417937</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P24" t="n">
         <v>2319.799627685893</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>734.6461798836013</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>565.7099969556945</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>415.5933575433587</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>322.7933138979686</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
@@ -6174,25 +6174,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>916.2946447138411</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6214,31 +6214,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6305,28 +6305,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6414,22 +6414,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2197.062545487567</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6445,37 +6445,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6484,7 +6484,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3112.537432147379</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C31" t="n">
-        <v>2943.601249219472</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D31" t="n">
-        <v>2793.484609807137</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E31" t="n">
-        <v>2793.484609807137</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F31" t="n">
-        <v>2646.594662309226</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>2479.398563024106</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4614.097912064634</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4394.496447087576</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>4105.421220431774</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>3850.736732225887</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W31" t="n">
-        <v>3561.319562188926</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X31" t="n">
-        <v>3333.330011290909</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y31" t="n">
-        <v>3112.537432147379</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="32">
@@ -6688,16 +6688,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6715,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3342.537229081859</v>
+        <v>1092.345997432834</v>
       </c>
       <c r="C34" t="n">
-        <v>3173.601046153952</v>
+        <v>923.4098145049275</v>
       </c>
       <c r="D34" t="n">
-        <v>3023.484406741616</v>
+        <v>773.2931750925917</v>
       </c>
       <c r="E34" t="n">
-        <v>2875.571313159223</v>
+        <v>625.3800815101986</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661313</v>
+        <v>478.4901340122882</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4335.079073985095</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>4046.003847329293</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V34" t="n">
-        <v>3791.319359123406</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W34" t="n">
-        <v>3791.319359123406</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="X34" t="n">
-        <v>3563.329808225389</v>
+        <v>1494.787041406604</v>
       </c>
       <c r="Y34" t="n">
-        <v>3342.537229081859</v>
+        <v>1273.994462263074</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7010,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3006.417838136243</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>2837.481655208336</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>2687.365015796</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>2646.594662309226</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>2646.594662309226</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>2479.398563024106</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4690.833152398593</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>4507.978318053498</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>4288.376853076439</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>3999.301626420637</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>3744.61713821475</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>3455.19996817779</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>3227.210417279773</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>3006.417838136243</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7156,22 +7156,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
@@ -7250,25 +7250,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>866.4638174991043</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
         <v>402.7245934908939</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603201</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>2040.996070613739</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1786.311582407852</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1496.894412370891</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1268.904861472874</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>1048.112282329344</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7487,25 +7487,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P42" t="n">
         <v>2319.799627685893</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>962.6357307816187</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>793.6995478537118</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>643.582908441376</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>495.6698148589829</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>348.7798673610725</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>181.5837680759525</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7602,19 +7602,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1144.284195611858</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>1144.284195611858</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7736,16 +7736,16 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7833,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -7984,22 +7984,22 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>207.0311336426206</v>
       </c>
       <c r="M2" t="n">
-        <v>348.4370131942333</v>
+        <v>348.4370131942334</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>338.9374781659683</v>
       </c>
       <c r="O2" t="n">
-        <v>11.85491297720159</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>26.19461818159724</v>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>352.462369476028</v>
       </c>
       <c r="N3" t="n">
-        <v>359.2821607945059</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>207.9407978764908</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>148.4266296017855</v>
+        <v>173.7639243740404</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.1843750390658</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8546,16 +8546,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>309.1863928326898</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>200.7458546176089</v>
+        <v>299.8549597144487</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.1843750390658</v>
+        <v>20.18437503906577</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8932,7 +8932,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1.477928890381008e-12</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>20.61870490125432</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>111.4161395899846</v>
+        <v>147.571561219435</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23661,7 +23661,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23949,10 +23949,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>12.68816929391107</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24135,19 +24135,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>31.93331737597606</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>54.56191943763299</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>138.4949402405074</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24612,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>44.73700564187209</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,13 +24654,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>75.37549921168795</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24849,13 +24849,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>171.4336447811471</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>65.54986409393064</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25089,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>6.257951202385129</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25128,10 +25128,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>112.6104454096911</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>106.0713126946632</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25557,10 +25557,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>101.6825818796764</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>53.40527886852308</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26025,22 +26025,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>43.2652634529499</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>772278.7653906168</v>
+        <v>772278.7653906167</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>772278.765390617</v>
+        <v>772278.7653906168</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>772278.7653906168</v>
+        <v>772278.7653906167</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>772278.7653906167</v>
+        <v>772278.7653906168</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>772278.765390617</v>
+        <v>772278.7653906168</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>772278.765390617</v>
+        <v>772278.7653906167</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>772278.765390617</v>
+        <v>772278.7653906167</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>772278.7653906168</v>
+        <v>772278.7653906167</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914266</v>
+        <v>656833.4158914264</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914271</v>
+        <v>656833.4158914267</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.4158914267</v>
       </c>
       <c r="E2" t="n">
+        <v>645717.2797520051</v>
+      </c>
+      <c r="F2" t="n">
+        <v>645717.2797520052</v>
+      </c>
+      <c r="G2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="H2" t="n">
+        <v>645717.2797520048</v>
+      </c>
+      <c r="I2" t="n">
         <v>645717.279752005</v>
       </c>
-      <c r="F2" t="n">
+      <c r="J2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="K2" t="n">
+        <v>645717.2797520048</v>
+      </c>
+      <c r="L2" t="n">
         <v>645717.279752005</v>
       </c>
-      <c r="G2" t="n">
-        <v>645717.279752005</v>
-      </c>
-      <c r="H2" t="n">
-        <v>645717.279752005</v>
-      </c>
-      <c r="I2" t="n">
-        <v>645717.2797520049</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
         <v>645717.2797520048</v>
       </c>
-      <c r="K2" t="n">
-        <v>645717.279752005</v>
-      </c>
-      <c r="L2" t="n">
-        <v>645717.2797520052</v>
-      </c>
-      <c r="M2" t="n">
-        <v>645717.2797520049</v>
-      </c>
       <c r="N2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="O2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="P2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520047</v>
       </c>
     </row>
     <row r="3">
@@ -26365,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753986</v>
+        <v>939682.9358753987</v>
       </c>
       <c r="C3" t="n">
         <v>172764.3597898923</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
         <v>500888.8677457508</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>169414.016826048</v>
+        <v>169414.0168260481</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26420,22 +26420,22 @@
         <v>159785.8388151599</v>
       </c>
       <c r="C4" t="n">
-        <v>129066.754725248</v>
+        <v>129066.7547252479</v>
       </c>
       <c r="D4" t="n">
-        <v>129066.754725248</v>
+        <v>129066.7547252479</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695011</v>
       </c>
       <c r="F4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.48053169513</v>
       </c>
       <c r="G4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="H4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="I4" t="n">
         <v>6287.480531695051</v>
@@ -26444,22 +26444,22 @@
         <v>6287.480531695051</v>
       </c>
       <c r="K4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="L4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="M4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695117</v>
       </c>
       <c r="N4" t="n">
         <v>6287.480531695052</v>
       </c>
       <c r="O4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="P4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-531980.4336961227</v>
+        <v>-531980.4336961231</v>
       </c>
       <c r="C6" t="n">
-        <v>261521.2120147772</v>
+        <v>261521.2120147769</v>
       </c>
       <c r="D6" t="n">
         <v>434285.5718046689</v>
       </c>
       <c r="E6" t="n">
-        <v>37418.40165065207</v>
+        <v>37071.02239629524</v>
       </c>
       <c r="F6" t="n">
-        <v>538307.2693964029</v>
+        <v>537959.8901420461</v>
       </c>
       <c r="G6" t="n">
-        <v>538307.2693964029</v>
+        <v>537959.8901420458</v>
       </c>
       <c r="H6" t="n">
-        <v>538307.2693964029</v>
+        <v>537959.8901420457</v>
       </c>
       <c r="I6" t="n">
-        <v>538307.2693964028</v>
+        <v>537959.8901420459</v>
       </c>
       <c r="J6" t="n">
-        <v>368893.2525703546</v>
+        <v>368545.8733159977</v>
       </c>
       <c r="K6" t="n">
-        <v>538307.2693964029</v>
+        <v>537959.8901420457</v>
       </c>
       <c r="L6" t="n">
-        <v>538307.2693964031</v>
+        <v>537959.8901420459</v>
       </c>
       <c r="M6" t="n">
-        <v>407422.8124921675</v>
+        <v>407075.4332378104</v>
       </c>
       <c r="N6" t="n">
-        <v>538307.2693964028</v>
+        <v>537959.8901420457</v>
       </c>
       <c r="O6" t="n">
-        <v>538307.2693964029</v>
+        <v>537959.8901420457</v>
       </c>
       <c r="P6" t="n">
-        <v>538307.2693964028</v>
+        <v>537959.8901420456</v>
       </c>
     </row>
   </sheetData>
@@ -26697,19 +26697,19 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>4.488825537024125e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>4.488825537024125e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>4.488825537024125e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>4.488825537024125e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.488825537024125e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26743,7 +26743,7 @@
         <v>939.7063906498445</v>
       </c>
       <c r="D3" t="n">
-        <v>939.7063906498445</v>
+        <v>939.7063906498447</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="C4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>4.488825537024125e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26965,7 +26965,7 @@
         <v>189.7254341522337</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
         <v>428.2691096918293</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.210096564402</v>
+        <v>525.2100965644021</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.210096564402</v>
+        <v>525.2100965644019</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4.488825537024125e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.210096564402</v>
+        <v>525.2100965644021</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,10 +27390,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>396.6419407909645</v>
       </c>
       <c r="H2" t="n">
         <v>308.5974454495113</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.315783973424</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>209.8976922291835</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1044530022292</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>211.8308495637127</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27548,16 +27548,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
-        <v>92.57362933544158</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994862</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,13 +27587,13 @@
         <v>116.4834600519698</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>122.0174995460485</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>62.89070164830903</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>16.61507123558459</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.161060211447</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,25 +27824,25 @@
         <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
-        <v>44.70698542825812</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
         <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>252.5921024254297</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,13 +27855,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>342.0284162392976</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>64.83556544767973</v>
+        <v>64.8355654476797</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
-        <v>198.3026647612045</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28022,16 +28022,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>93.6429614642833</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
-        <v>147.161060211447</v>
+        <v>57.09250396080652</v>
       </c>
       <c r="I10" t="n">
-        <v>104.4906595130011</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,16 +28061,16 @@
         <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
         <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28338,7 +28338,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1.125499693443999e-12</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -30000,7 +30000,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.777714133265703</v>
+        <v>3.777714133265704</v>
       </c>
       <c r="H8" t="n">
         <v>38.6885148673074</v>
@@ -31524,40 +31524,40 @@
         <v>145.6403241227262</v>
       </c>
       <c r="J8" t="n">
-        <v>320.6287649182603</v>
+        <v>320.6287649182604</v>
       </c>
       <c r="K8" t="n">
-        <v>480.5394041793976</v>
+        <v>480.5394041793978</v>
       </c>
       <c r="L8" t="n">
-        <v>596.1516230853281</v>
+        <v>596.1516230853282</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027919</v>
+        <v>663.3335468027922</v>
       </c>
       <c r="N8" t="n">
-        <v>674.0669770839332</v>
+        <v>674.0669770839334</v>
       </c>
       <c r="O8" t="n">
-        <v>636.5023321712723</v>
+        <v>636.5023321712724</v>
       </c>
       <c r="P8" t="n">
-        <v>543.2400145062752</v>
+        <v>543.2400145062753</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.950627108697</v>
+        <v>407.9506271086971</v>
       </c>
       <c r="R8" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>86.0846608117923</v>
+        <v>86.08466081179233</v>
       </c>
       <c r="T8" t="n">
-        <v>16.53694361837062</v>
+        <v>16.53694361837063</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3022171306612562</v>
+        <v>0.3022171306612563</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31600,43 +31600,43 @@
         <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59146383586113</v>
+        <v>69.59146383586115</v>
       </c>
       <c r="J9" t="n">
-        <v>190.9642958583802</v>
+        <v>190.9642958583803</v>
       </c>
       <c r="K9" t="n">
-        <v>326.3883979675031</v>
+        <v>326.3883979675032</v>
       </c>
       <c r="L9" t="n">
-        <v>438.8694798973638</v>
+        <v>438.8694798973639</v>
       </c>
       <c r="M9" t="n">
-        <v>512.1399829041652</v>
+        <v>512.1399829041653</v>
       </c>
       <c r="N9" t="n">
-        <v>525.6948043315579</v>
+        <v>525.694804331558</v>
       </c>
       <c r="O9" t="n">
-        <v>480.9080431470011</v>
+        <v>480.9080431470012</v>
       </c>
       <c r="P9" t="n">
-        <v>385.9711022274805</v>
+        <v>385.9711022274806</v>
       </c>
       <c r="Q9" t="n">
-        <v>258.0114603157837</v>
+        <v>258.0114603157838</v>
       </c>
       <c r="R9" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.54392985284989</v>
+        <v>37.54392985284991</v>
       </c>
       <c r="T9" t="n">
-        <v>8.147077103841573</v>
+        <v>8.147077103841575</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1329773194315818</v>
+        <v>0.1329773194315819</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,43 +31679,43 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.95981541425715</v>
+        <v>50.95981541425716</v>
       </c>
       <c r="J10" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K10" t="n">
-        <v>196.8761913525411</v>
+        <v>196.8761913525412</v>
       </c>
       <c r="L10" t="n">
         <v>251.9337428309436</v>
       </c>
       <c r="M10" t="n">
-        <v>265.6288080979551</v>
+        <v>265.6288080979552</v>
       </c>
       <c r="N10" t="n">
-        <v>259.3127487509646</v>
+        <v>259.3127487509647</v>
       </c>
       <c r="O10" t="n">
-        <v>239.5172944561276</v>
+        <v>239.5172944561277</v>
       </c>
       <c r="P10" t="n">
-        <v>204.9484232984512</v>
+        <v>204.9484232984513</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.8956649881265</v>
+        <v>141.8956649881266</v>
       </c>
       <c r="R10" t="n">
-        <v>76.19324275662507</v>
+        <v>76.19324275662508</v>
       </c>
       <c r="S10" t="n">
-        <v>29.53142870288116</v>
+        <v>29.53142870288117</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843061</v>
+        <v>7.240360714843063</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0924301367852307</v>
+        <v>0.09243013678523072</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,22 +31843,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>381.6404378718165</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32077,7 +32077,7 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
@@ -32086,19 +32086,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>556.7959610899863</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32311,16 +32311,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>164.2853229338207</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32332,7 +32332,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>248.5245325067415</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
@@ -32496,7 +32496,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
         <v>125.31755462929</v>
@@ -32548,10 +32548,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32560,19 +32560,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>165.3312853305619</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32788,25 +32788,25 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>592.1874941409601</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>139.5228722182831</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
@@ -33025,10 +33025,10 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33037,19 +33037,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>285.8867128925984</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33259,34 +33259,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>318.3985571819322</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33496,13 +33496,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33511,19 +33511,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>489.2891832783074</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33751,13 +33751,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>156.3072281639545</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33970,13 +33970,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33988,10 +33988,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34207,13 +34207,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34222,13 +34222,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>290.6810969936921</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>163.1438255932938</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34456,19 +34456,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>414.6448185524877</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34704,22 +34704,22 @@
         <v>163.429305116157</v>
       </c>
       <c r="L2" t="n">
-        <v>240.0230113315071</v>
+        <v>447.0541449741277</v>
       </c>
       <c r="M2" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="N2" t="n">
-        <v>308.5607133692782</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="O2" t="n">
-        <v>289.7500840041051</v>
+        <v>277.8951710269035</v>
       </c>
       <c r="P2" t="n">
-        <v>524.1263114938092</v>
+        <v>202.3276033223266</v>
       </c>
       <c r="Q2" t="n">
-        <v>315.5952546185461</v>
+        <v>103.2802639586414</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>151.662274559733</v>
       </c>
       <c r="K3" t="n">
-        <v>387.1148251643756</v>
+        <v>122.649588151797</v>
       </c>
       <c r="L3" t="n">
-        <v>211.7079527806374</v>
+        <v>582.5482980840966</v>
       </c>
       <c r="M3" t="n">
-        <v>266.6055873691795</v>
+        <v>619.0679568452075</v>
       </c>
       <c r="N3" t="n">
-        <v>647.4981915352464</v>
+        <v>288.2160307407405</v>
       </c>
       <c r="O3" t="n">
         <v>241.2171229812715</v>
       </c>
       <c r="P3" t="n">
-        <v>382.0104554054905</v>
+        <v>492.5324261689369</v>
       </c>
       <c r="Q3" t="n">
-        <v>276.0148132527188</v>
+        <v>65.9375255168697</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34956,7 +34956,7 @@
         <v>312.0070187510057</v>
       </c>
       <c r="Q5" t="n">
-        <v>185.6449372342481</v>
+        <v>185.6449372342475</v>
       </c>
       <c r="R5" t="n">
         <v>21.71629760961983</v>
@@ -35017,7 +35017,7 @@
         <v>190.2177045321224</v>
       </c>
       <c r="K6" t="n">
-        <v>336.9735885949296</v>
+        <v>362.3108833671845</v>
       </c>
       <c r="L6" t="n">
         <v>300.3151001174896</v>
@@ -35038,7 +35038,7 @@
         <v>328.1069739656113</v>
       </c>
       <c r="R6" t="n">
-        <v>25.33729477225502</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>139.582860391574</v>
+        <v>139.5828603915741</v>
       </c>
       <c r="K8" t="n">
-        <v>260.4495531344171</v>
+        <v>260.4495531344172</v>
       </c>
       <c r="L8" t="n">
-        <v>360.3852081153408</v>
+        <v>360.385208115341</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755192</v>
+        <v>432.9873135755195</v>
       </c>
       <c r="N8" t="n">
-        <v>444.6539134873423</v>
+        <v>444.6539134873424</v>
       </c>
       <c r="O8" t="n">
-        <v>406.4041207495856</v>
+        <v>406.4041207495857</v>
       </c>
       <c r="P8" t="n">
-        <v>312.0070187510057</v>
+        <v>312.0070187510058</v>
       </c>
       <c r="Q8" t="n">
-        <v>185.6449372342475</v>
+        <v>185.6449372342476</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961983</v>
+        <v>21.71629760961989</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>64.12666919171352</v>
+        <v>64.12666919171357</v>
       </c>
       <c r="K9" t="n">
-        <v>188.5469589931441</v>
+        <v>188.5469589931442</v>
       </c>
       <c r="L9" t="n">
-        <v>300.3151001174896</v>
+        <v>300.3151001174897</v>
       </c>
       <c r="M9" t="n">
-        <v>370.0059489821469</v>
+        <v>370.005948982147</v>
       </c>
       <c r="N9" t="n">
-        <v>394.3530922482246</v>
+        <v>394.3530922482247</v>
       </c>
       <c r="O9" t="n">
-        <v>647.4981915352464</v>
+        <v>338.3117987025568</v>
       </c>
       <c r="P9" t="n">
-        <v>452.7425494307592</v>
+        <v>551.8516545275991</v>
       </c>
       <c r="Q9" t="n">
-        <v>118.0296862297622</v>
+        <v>328.1069739656114</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.4456821797836</v>
+        <v>26.44568217978363</v>
       </c>
       <c r="K10" t="n">
         <v>174.6066995266583</v>
@@ -35339,19 +35339,19 @@
         <v>279.5237680912597</v>
       </c>
       <c r="M10" t="n">
-        <v>305.2126850597957</v>
+        <v>305.2126850597958</v>
       </c>
       <c r="N10" t="n">
-        <v>303.4449211301932</v>
+        <v>303.4449211301933</v>
       </c>
       <c r="O10" t="n">
         <v>264.1024223701673</v>
       </c>
       <c r="P10" t="n">
-        <v>202.2269825633447</v>
+        <v>202.2269825633448</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.73362173643211</v>
+        <v>55.73362173643217</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,22 +35491,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>243.7989988974575</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35652,7 +35652,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462702</v>
       </c>
       <c r="M14" t="n">
         <v>735.3001107902948</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35734,19 +35734,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>425.454249006653</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35889,7 +35889,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
         <v>735.3001107902948</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35980,7 +35980,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>114.5501250924112</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36208,19 +36208,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>25.34951124454038</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36375,7 +36375,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924728</v>
@@ -36436,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>453.6331143610859</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>8.181160134949776</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
@@ -36603,7 +36603,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36685,19 +36685,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>151.9123054782682</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36843,7 +36843,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
         <v>696.488651224316</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>176.2645232599139</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37159,19 +37159,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>357.9474711949741</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37399,13 +37399,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>22.33282074962425</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37636,10 +37636,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37794,7 +37794,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37870,13 +37870,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>159.3393849103587</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>20.54758114884936</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38104,19 +38104,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>272.5107846304694</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_9_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_9_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2706603.638803122</v>
+        <v>2708364.169105909</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -673,7 +673,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>15.64579790407967</v>
+        <v>365.8592741066872</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.315783973424</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>209.8976922291835</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.1044530022292</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>45.22932155257932</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>78.43002482525293</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -901,22 +901,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>286.5101294792975</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>411.5250233818693</v>
+        <v>11.52502338186935</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>64.83556544767973</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>143.6682042974517</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -995,7 +995,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I6" t="n">
-        <v>19.80516901555394</v>
+        <v>19.80516901555393</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>33.93089591116178</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>33.93089591116134</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1138,19 +1138,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>12.65462538138537</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>11.52502338186935</v>
       </c>
       <c r="H8" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>282.0375089888365</v>
       </c>
     </row>
     <row r="9">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>103.6041095818482</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1305,10 +1305,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
-        <v>90.06855625064044</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>104.4906595130011</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417103</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881302</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784681</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>32.26041896250234</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1773,7 +1773,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>105.6507867899574</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2010,7 +2010,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>99.97427419833815</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>78.9105100867805</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>23.62554568141315</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>42.5313457611372</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2724,13 +2724,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>120.7871326503968</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>66.78466399819887</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3009,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>186.5877792298974</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>122.8704329402516</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3201,13 +3201,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>159.2661870898837</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3280,10 +3280,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444144</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>538.7037775204462</v>
+        <v>892.4547635836861</v>
       </c>
       <c r="C2" t="n">
-        <v>169.7412605800345</v>
+        <v>523.4922466432745</v>
       </c>
       <c r="D2" t="n">
-        <v>169.7412605800345</v>
+        <v>523.4922466432745</v>
       </c>
       <c r="E2" t="n">
-        <v>169.7412605800345</v>
+        <v>523.4922466432745</v>
       </c>
       <c r="F2" t="n">
-        <v>162.7957598308311</v>
+        <v>516.546745894071</v>
       </c>
       <c r="G2" t="n">
         <v>146.9919235640839</v>
@@ -4330,52 +4330,52 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>125.8997233870233</v>
+        <v>293.3053724073764</v>
       </c>
       <c r="K2" t="n">
-        <v>287.6947354520187</v>
+        <v>605.2571586872682</v>
       </c>
       <c r="L2" t="n">
-        <v>730.2783389764052</v>
+        <v>842.8799399054602</v>
       </c>
       <c r="M2" t="n">
-        <v>1371.301548596299</v>
+        <v>1138.950506463063</v>
       </c>
       <c r="N2" t="n">
-        <v>2012.324758216193</v>
+        <v>1444.425612698649</v>
       </c>
       <c r="O2" t="n">
-        <v>2287.440977532828</v>
+        <v>1719.541832015283</v>
       </c>
       <c r="P2" t="n">
-        <v>2487.745304821931</v>
+        <v>2238.426880394154</v>
       </c>
       <c r="Q2" t="n">
-        <v>2589.992766140986</v>
+        <v>2550.866182466515</v>
       </c>
       <c r="R2" t="n">
         <v>2589.992766140986</v>
       </c>
       <c r="S2" t="n">
-        <v>2448.259651016315</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="T2" t="n">
-        <v>2236.241780077746</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="U2" t="n">
-        <v>1982.600918459333</v>
+        <v>2336.351904522573</v>
       </c>
       <c r="V2" t="n">
-        <v>1651.538031115762</v>
+        <v>2005.289017179002</v>
       </c>
       <c r="W2" t="n">
-        <v>1298.769375845648</v>
+        <v>1652.520361908888</v>
       </c>
       <c r="X2" t="n">
-        <v>925.303617584568</v>
+        <v>1279.054603647808</v>
       </c>
       <c r="Y2" t="n">
-        <v>925.303617584568</v>
+        <v>1279.054603647808</v>
       </c>
     </row>
     <row r="3">
@@ -4409,25 +4409,25 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>201.9455071369554</v>
+        <v>77.11538214995069</v>
       </c>
       <c r="K3" t="n">
-        <v>323.3685994072345</v>
+        <v>198.5384744202298</v>
       </c>
       <c r="L3" t="n">
-        <v>900.09141451049</v>
+        <v>589.3234121784369</v>
       </c>
       <c r="M3" t="n">
-        <v>1512.968691787245</v>
+        <v>1230.346621798331</v>
       </c>
       <c r="N3" t="n">
-        <v>1798.302562220579</v>
+        <v>1515.680492231664</v>
       </c>
       <c r="O3" t="n">
-        <v>2037.107513972038</v>
+        <v>2144.409140067085</v>
       </c>
       <c r="P3" t="n">
-        <v>2524.714615879285</v>
+        <v>2316.738101020795</v>
       </c>
       <c r="Q3" t="n">
         <v>2589.992766140986</v>
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>783.19793202134</v>
+        <v>659.9479324798768</v>
       </c>
       <c r="C4" t="n">
         <v>614.2617490934331</v>
@@ -4515,25 +4515,25 @@
         <v>1311.202309361123</v>
       </c>
       <c r="S4" t="n">
-        <v>1231.980062062888</v>
+        <v>1108.730062521424</v>
       </c>
       <c r="T4" t="n">
-        <v>1231.980062062888</v>
+        <v>1108.730062521424</v>
       </c>
       <c r="U4" t="n">
-        <v>1231.980062062888</v>
+        <v>1108.730062521424</v>
       </c>
       <c r="V4" t="n">
-        <v>1231.980062062888</v>
+        <v>1108.730062521424</v>
       </c>
       <c r="W4" t="n">
-        <v>1231.980062062888</v>
+        <v>1108.730062521424</v>
       </c>
       <c r="X4" t="n">
-        <v>1003.99051116487</v>
+        <v>880.740511623407</v>
       </c>
       <c r="Y4" t="n">
-        <v>783.19793202134</v>
+        <v>659.9479324798768</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1294.668437559719</v>
+        <v>1087.019180569859</v>
       </c>
       <c r="C5" t="n">
-        <v>925.7059206193069</v>
+        <v>718.0566636294473</v>
       </c>
       <c r="D5" t="n">
-        <v>925.7059206193069</v>
+        <v>359.7909650226968</v>
       </c>
       <c r="E5" t="n">
-        <v>539.9176680210627</v>
+        <v>70.3867938314872</v>
       </c>
       <c r="F5" t="n">
-        <v>532.9721672718592</v>
+        <v>63.44129308228372</v>
       </c>
       <c r="G5" t="n">
-        <v>117.2903254719912</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="H5" t="n">
-        <v>117.2903254719912</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="I5" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="J5" t="n">
-        <v>189.9868871104791</v>
+        <v>189.9868871104781</v>
       </c>
       <c r="K5" t="n">
-        <v>447.8319447135523</v>
+        <v>447.831944713551</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477401</v>
+        <v>804.6133007477384</v>
       </c>
       <c r="M5" t="n">
-        <v>1233.270741187504</v>
+        <v>1233.270741187503</v>
       </c>
       <c r="N5" t="n">
-        <v>1673.478115539973</v>
+        <v>1673.478115539971</v>
       </c>
       <c r="O5" t="n">
-        <v>2075.818195082063</v>
+        <v>2075.818195082062</v>
       </c>
       <c r="P5" t="n">
         <v>2384.705143645558</v>
       </c>
       <c r="Q5" t="n">
-        <v>2568.493631507462</v>
+        <v>2568.493631507463</v>
       </c>
       <c r="R5" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="S5" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="T5" t="n">
-        <v>2444.873367860732</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="U5" t="n">
-        <v>2444.873367860732</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="V5" t="n">
-        <v>2444.873367860732</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="W5" t="n">
-        <v>2444.873367860732</v>
+        <v>2237.224110870872</v>
       </c>
       <c r="X5" t="n">
-        <v>2071.407609599652</v>
+        <v>1863.758352609792</v>
       </c>
       <c r="Y5" t="n">
-        <v>1681.26827762384</v>
+        <v>1473.619020633981</v>
       </c>
     </row>
     <row r="6">
@@ -4643,25 +4643,25 @@
         <v>71.80507655065199</v>
       </c>
       <c r="I6" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="J6" t="n">
-        <v>240.1153828096209</v>
+        <v>115.2852578226161</v>
       </c>
       <c r="K6" t="n">
-        <v>598.8031573431335</v>
+        <v>563.7673318682816</v>
       </c>
       <c r="L6" t="n">
-        <v>896.1151064594483</v>
+        <v>861.0792809845964</v>
       </c>
       <c r="M6" t="n">
-        <v>1262.420995951774</v>
+        <v>1227.385170476922</v>
       </c>
       <c r="N6" t="n">
-        <v>1652.830557277516</v>
+        <v>1617.794731802664</v>
       </c>
       <c r="O6" t="n">
-        <v>1987.759237993047</v>
+        <v>1952.723412518195</v>
       </c>
       <c r="P6" t="n">
         <v>2237.235965858066</v>
@@ -4719,49 +4719,49 @@
         <v>200.4473908899379</v>
       </c>
       <c r="H7" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="I7" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="J7" t="n">
-        <v>77.98108068080549</v>
+        <v>77.98108068080552</v>
       </c>
       <c r="K7" t="n">
         <v>250.8417132121972</v>
       </c>
       <c r="L7" t="n">
-        <v>527.5702436225444</v>
+        <v>527.5702436225445</v>
       </c>
       <c r="M7" t="n">
-        <v>829.7308018317422</v>
+        <v>829.7308018317423</v>
       </c>
       <c r="N7" t="n">
-        <v>1130.141273750633</v>
+        <v>1130.141273750634</v>
       </c>
       <c r="O7" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P7" t="n">
-        <v>1591.80738463481</v>
+        <v>1591.807384634811</v>
       </c>
       <c r="Q7" t="n">
         <v>1646.983670153878</v>
       </c>
       <c r="R7" t="n">
-        <v>1646.983670153878</v>
+        <v>1612.710037920382</v>
       </c>
       <c r="S7" t="n">
-        <v>1646.983670153878</v>
+        <v>1612.710037920382</v>
       </c>
       <c r="T7" t="n">
-        <v>1646.983670153878</v>
+        <v>1612.710037920382</v>
       </c>
       <c r="U7" t="n">
-        <v>1646.983670153878</v>
+        <v>1612.710037920382</v>
       </c>
       <c r="V7" t="n">
-        <v>1646.983670153878</v>
+        <v>1612.710037920382</v>
       </c>
       <c r="W7" t="n">
         <v>1612.710037920382</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>755.9562932262879</v>
+        <v>1587.443666017298</v>
       </c>
       <c r="C8" t="n">
-        <v>386.9937762858762</v>
+        <v>1218.481149076886</v>
       </c>
       <c r="D8" t="n">
-        <v>374.211326405689</v>
+        <v>860.2154504701355</v>
       </c>
       <c r="E8" t="n">
-        <v>374.211326405689</v>
+        <v>474.4271978718913</v>
       </c>
       <c r="F8" t="n">
-        <v>367.2658256564855</v>
+        <v>63.44129308228372</v>
       </c>
       <c r="G8" t="n">
-        <v>355.6243878970215</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="H8" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="I8" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="J8" t="n">
-        <v>189.9868871104782</v>
+        <v>189.9868871104777</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135512</v>
+        <v>447.8319447135507</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477388</v>
+        <v>804.6133007477383</v>
       </c>
       <c r="M8" t="n">
-        <v>1233.270741187503</v>
+        <v>1233.270741187502</v>
       </c>
       <c r="N8" t="n">
-        <v>1673.478115539972</v>
+        <v>1673.478115539971</v>
       </c>
       <c r="O8" t="n">
-        <v>2075.818195082062</v>
+        <v>2075.818195082061</v>
       </c>
       <c r="P8" t="n">
         <v>2384.705143645557</v>
       </c>
       <c r="Q8" t="n">
-        <v>2568.493631507462</v>
+        <v>2568.493631507463</v>
       </c>
       <c r="R8" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="S8" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="T8" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="U8" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="V8" t="n">
-        <v>2258.929878797415</v>
+        <v>2258.929878797416</v>
       </c>
       <c r="W8" t="n">
-        <v>1906.161223527301</v>
+        <v>2258.929878797416</v>
       </c>
       <c r="X8" t="n">
-        <v>1532.695465266221</v>
+        <v>2258.929878797416</v>
       </c>
       <c r="Y8" t="n">
-        <v>1142.55613329041</v>
+        <v>1974.043506081419</v>
       </c>
     </row>
     <row r="9">
@@ -4877,28 +4877,28 @@
         <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.80507655065198</v>
+        <v>71.80507655065199</v>
       </c>
       <c r="I9" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="J9" t="n">
-        <v>115.2852578226162</v>
+        <v>240.1153828096209</v>
       </c>
       <c r="K9" t="n">
-        <v>301.9467472258289</v>
+        <v>598.8031573431335</v>
       </c>
       <c r="L9" t="n">
-        <v>599.2586963421437</v>
+        <v>896.1151064594483</v>
       </c>
       <c r="M9" t="n">
-        <v>965.5645858344692</v>
+        <v>1262.420995951774</v>
       </c>
       <c r="N9" t="n">
-        <v>1355.974147160212</v>
+        <v>1652.830557277516</v>
       </c>
       <c r="O9" t="n">
-        <v>1690.902827875743</v>
+        <v>1987.759237993047</v>
       </c>
       <c r="P9" t="n">
         <v>2237.235965858066</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>693.2439961827737</v>
+        <v>770.2418452737728</v>
       </c>
       <c r="C10" t="n">
-        <v>693.2439961827737</v>
+        <v>770.2418452737728</v>
       </c>
       <c r="D10" t="n">
-        <v>543.1273567704379</v>
+        <v>620.1252058614371</v>
       </c>
       <c r="E10" t="n">
-        <v>395.2142631880448</v>
+        <v>472.2121122790439</v>
       </c>
       <c r="F10" t="n">
-        <v>248.3243156901345</v>
+        <v>325.3221647811336</v>
       </c>
       <c r="G10" t="n">
-        <v>248.3243156901345</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="H10" t="n">
         <v>157.3459760430229</v>
       </c>
       <c r="I10" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="J10" t="n">
         <v>77.98108068080552</v>
       </c>
       <c r="K10" t="n">
-        <v>250.8417132121973</v>
+        <v>250.8417132121972</v>
       </c>
       <c r="L10" t="n">
         <v>527.5702436225445</v>
       </c>
       <c r="M10" t="n">
-        <v>829.7308018317424</v>
+        <v>829.7308018317423</v>
       </c>
       <c r="N10" t="n">
         <v>1130.141273750634</v>
@@ -5035,22 +5035,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
@@ -5059,31 +5059,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N12" t="n">
-        <v>2129.438138565707</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5272,28 +5272,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694708</v>
@@ -5302,13 +5302,13 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466572</v>
@@ -5320,10 +5320,10 @@
         <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>950.7540666811333</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C16" t="n">
-        <v>781.8178837532264</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408906</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578603</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>983.3403484614387</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5497,28 +5497,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5530,7 +5530,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5591,28 +5591,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>194.8007783998286</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E19" t="n">
-        <v>93.81666304797187</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5749,22 +5749,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5846,10 +5846,10 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2319.799627685893</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5977,40 +5977,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6068,25 +6068,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>542.9134462654469</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1140.291933891999</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1767.889897446606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O24" t="n">
-        <v>2319.799627685893</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>366.9636532421613</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>199.7675539570412</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6214,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,16 +6238,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>847.644273983533</v>
       </c>
       <c r="C28" t="n">
-        <v>513.8536007400712</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D28" t="n">
-        <v>363.7369613277355</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E28" t="n">
-        <v>215.8238677453423</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F28" t="n">
-        <v>215.8238677453423</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6384,52 +6384,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2129.60328892373</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1840.528062267928</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1585.843574062041</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1296.426404025081</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1068.436853127063</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>847.644273983533</v>
       </c>
     </row>
     <row r="29">
@@ -6451,40 +6451,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.0655846733346</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>411.1294017454277</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1499.913349582082</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1210.496179545122</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>982.5066286471044</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>761.7140495035743</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6688,7 +6688,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362687</v>
@@ -6697,13 +6697,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,16 +6712,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6776,13 +6776,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1092.345997432834</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C34" t="n">
-        <v>923.4098145049275</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D34" t="n">
-        <v>773.2931750925917</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E34" t="n">
-        <v>625.3800815101986</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F34" t="n">
-        <v>478.4901340122882</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U34" t="n">
-        <v>1977.461080510508</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V34" t="n">
-        <v>1722.776592304621</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W34" t="n">
-        <v>1722.776592304621</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X34" t="n">
-        <v>1494.787041406604</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y34" t="n">
-        <v>1273.994462263074</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168597</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332386</v>
@@ -6949,40 +6949,40 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,16 +7010,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7156,34 +7156,34 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
@@ -7192,10 +7192,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7408,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,16 +7423,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7548,16 +7548,16 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7569,37 +7569,37 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
         <v>1746.193029533436</v>
@@ -7636,40 +7636,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -7978,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>151.6735093079761</v>
       </c>
       <c r="L2" t="n">
-        <v>207.0311336426206</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>348.4370131942334</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>338.9374781659683</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
-        <v>26.19461818159724</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,28 +8057,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>183.024307581188</v>
       </c>
       <c r="M3" t="n">
-        <v>352.462369476028</v>
+        <v>380.892604166067</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8230,7 +8230,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>173.7639243740404</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>35.3897227018706</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.1843750390658</v>
+        <v>20.18437503906578</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>173.7639243740404</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>299.8549597144487</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.18437503906577</v>
+        <v>20.18437503906578</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8932,7 +8932,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>147.571561219435</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23661,7 +23661,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>180.5336875992868</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23898,7 +23898,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>46.45968844823102</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23910,7 +23910,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>61.35027805667497</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24375,13 +24375,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>116.6691671648107</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>138.4949402405074</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24612,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>44.73700564187209</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>150.6207863290894</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>65.54986409393064</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>25.74504007796071</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25089,10 +25089,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>6.257951202385129</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25122,22 +25122,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>772278.7653906167</v>
+        <v>772278.7653906168</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>772278.7653906168</v>
+        <v>772278.765390617</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>772278.7653906167</v>
+        <v>772278.7653906168</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>772278.765390617</v>
+        <v>772278.7653906168</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>772278.7653906167</v>
+        <v>772278.7653906168</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914264</v>
+        <v>656833.4158914266</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914268</v>
       </c>
       <c r="D2" t="n">
         <v>656833.4158914267</v>
       </c>
       <c r="E2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="F2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="G2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="H2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="I2" t="n">
         <v>645717.2797520051</v>
       </c>
-      <c r="F2" t="n">
-        <v>645717.2797520052</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
+        <v>645717.2797520051</v>
+      </c>
+      <c r="K2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="L2" t="n">
+        <v>645717.2797520051</v>
+      </c>
+      <c r="M2" t="n">
         <v>645717.2797520049</v>
       </c>
-      <c r="H2" t="n">
-        <v>645717.2797520048</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="N2" t="n">
         <v>645717.279752005</v>
       </c>
-      <c r="J2" t="n">
+      <c r="O2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="P2" t="n">
         <v>645717.2797520049</v>
-      </c>
-      <c r="K2" t="n">
-        <v>645717.2797520048</v>
-      </c>
-      <c r="L2" t="n">
-        <v>645717.279752005</v>
-      </c>
-      <c r="M2" t="n">
-        <v>645717.2797520048</v>
-      </c>
-      <c r="N2" t="n">
-        <v>645717.2797520048</v>
-      </c>
-      <c r="O2" t="n">
-        <v>645717.2797520048</v>
-      </c>
-      <c r="P2" t="n">
-        <v>645717.2797520047</v>
       </c>
     </row>
     <row r="3">
@@ -26368,16 +26368,16 @@
         <v>939682.9358753987</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898923</v>
+        <v>172764.3597898924</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457508</v>
+        <v>500888.8677457506</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
         <v>169414.0168260481</v>
@@ -26426,31 +26426,31 @@
         <v>129066.7547252479</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531695011</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="F4" t="n">
-        <v>6287.48053169513</v>
+        <v>6287.480531695093</v>
       </c>
       <c r="G4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="H4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="I4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="J4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="K4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695028</v>
       </c>
       <c r="L4" t="n">
         <v>6287.480531695052</v>
       </c>
       <c r="M4" t="n">
-        <v>6287.480531695117</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="N4" t="n">
         <v>6287.480531695052</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-531980.4336961231</v>
+        <v>-531980.4336961228</v>
       </c>
       <c r="C6" t="n">
         <v>261521.2120147769</v>
       </c>
       <c r="D6" t="n">
-        <v>434285.5718046689</v>
+        <v>434285.5718046692</v>
       </c>
       <c r="E6" t="n">
-        <v>37071.02239629524</v>
+        <v>37383.66372521644</v>
       </c>
       <c r="F6" t="n">
-        <v>537959.8901420461</v>
+        <v>538272.5314709669</v>
       </c>
       <c r="G6" t="n">
-        <v>537959.8901420458</v>
+        <v>538272.5314709675</v>
       </c>
       <c r="H6" t="n">
-        <v>537959.8901420457</v>
+        <v>538272.5314709671</v>
       </c>
       <c r="I6" t="n">
-        <v>537959.8901420459</v>
+        <v>538272.5314709672</v>
       </c>
       <c r="J6" t="n">
-        <v>368545.8733159977</v>
+        <v>368858.5146449191</v>
       </c>
       <c r="K6" t="n">
-        <v>537959.8901420457</v>
+        <v>538272.5314709672</v>
       </c>
       <c r="L6" t="n">
-        <v>537959.8901420459</v>
+        <v>538272.5314709673</v>
       </c>
       <c r="M6" t="n">
-        <v>407075.4332378104</v>
+        <v>407388.0745667318</v>
       </c>
       <c r="N6" t="n">
-        <v>537959.8901420457</v>
+        <v>538272.5314709672</v>
       </c>
       <c r="O6" t="n">
-        <v>537959.8901420457</v>
+        <v>538272.5314709672</v>
       </c>
       <c r="P6" t="n">
-        <v>537959.8901420456</v>
+        <v>538272.5314709671</v>
       </c>
     </row>
   </sheetData>
@@ -26697,19 +26697,19 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.488825537024125e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.488825537024125e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>4.488825537024125e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>4.488825537024125e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.488825537024125e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26740,10 +26740,10 @@
         <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>939.7063906498445</v>
+        <v>939.7063906498446</v>
       </c>
       <c r="D3" t="n">
-        <v>939.7063906498447</v>
+        <v>939.7063906498446</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,16 +26792,16 @@
         <v>647.4981915352465</v>
       </c>
       <c r="C4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352466</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352466</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26822,7 +26822,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.488825537024125e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26962,17 +26962,17 @@
         <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7254341522337</v>
+        <v>189.7254341522338</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>428.2691096918292</v>
+      </c>
+      <c r="F3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="E3" t="n">
-        <v>428.2691096918293</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.2100965644021</v>
+        <v>525.2100965644017</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352466</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644019</v>
+        <v>525.210096564402</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>4.488825537024125e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644021</v>
+        <v>525.2100965644017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27393,7 +27393,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>396.6419407909645</v>
+        <v>46.42846458835692</v>
       </c>
       <c r="H2" t="n">
         <v>308.5974454495113</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>140.315783973424</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>122.0174995460485</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27587,7 +27587,7 @@
         <v>116.4834600519698</v>
       </c>
       <c r="S4" t="n">
-        <v>122.0174995460485</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>222.1670476323163</v>
@@ -27621,22 +27621,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>95.42024059296432</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
-        <v>62.89070164830903</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
         <v>251.0434357771752</v>
@@ -27678,7 +27678,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.1001486205444</v>
+        <v>67.16925270938262</v>
       </c>
       <c r="S7" t="n">
         <v>194.4851693340911</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>252.5921024254297</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27858,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>342.0284162392976</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
-        <v>64.8355654476797</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27915,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>104.2004296672171</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>76.2278706000891</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28025,10 +28025,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>57.09250396080652</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28338,7 +28338,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1.125499693443999e-12</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28392,7 +28392,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>8.953513792444654e-13</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -30000,7 +30000,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.777714133265703</v>
+        <v>3.777714133265704</v>
       </c>
       <c r="H5" t="n">
         <v>38.6885148673074</v>
@@ -31290,37 +31290,37 @@
         <v>320.6287649182603</v>
       </c>
       <c r="K5" t="n">
-        <v>480.5394041793976</v>
+        <v>480.5394041793977</v>
       </c>
       <c r="L5" t="n">
         <v>596.1516230853281</v>
       </c>
       <c r="M5" t="n">
-        <v>663.3335468027919</v>
+        <v>663.3335468027921</v>
       </c>
       <c r="N5" t="n">
         <v>674.0669770839332</v>
       </c>
       <c r="O5" t="n">
-        <v>636.5023321712723</v>
+        <v>636.5023321712724</v>
       </c>
       <c r="P5" t="n">
         <v>543.2400145062752</v>
       </c>
       <c r="Q5" t="n">
-        <v>407.950627108697</v>
+        <v>407.9506271086971</v>
       </c>
       <c r="R5" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S5" t="n">
-        <v>86.0846608117923</v>
+        <v>86.08466081179232</v>
       </c>
       <c r="T5" t="n">
-        <v>16.53694361837062</v>
+        <v>16.53694361837063</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3022171306612562</v>
+        <v>0.3022171306612563</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31363,7 +31363,7 @@
         <v>19.52107049255621</v>
       </c>
       <c r="I6" t="n">
-        <v>69.59146383586113</v>
+        <v>69.59146383586115</v>
       </c>
       <c r="J6" t="n">
         <v>190.9642958583802</v>
@@ -31384,19 +31384,19 @@
         <v>480.9080431470011</v>
       </c>
       <c r="P6" t="n">
-        <v>385.9711022274805</v>
+        <v>385.9711022274806</v>
       </c>
       <c r="Q6" t="n">
-        <v>258.0114603157837</v>
+        <v>258.0114603157838</v>
       </c>
       <c r="R6" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S6" t="n">
-        <v>37.54392985284989</v>
+        <v>37.5439298528499</v>
       </c>
       <c r="T6" t="n">
-        <v>8.147077103841573</v>
+        <v>8.147077103841575</v>
       </c>
       <c r="U6" t="n">
         <v>0.1329773194315818</v>
@@ -31442,25 +31442,25 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I7" t="n">
-        <v>50.95981541425715</v>
+        <v>50.95981541425716</v>
       </c>
       <c r="J7" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K7" t="n">
-        <v>196.8761913525411</v>
+        <v>196.8761913525412</v>
       </c>
       <c r="L7" t="n">
         <v>251.9337428309436</v>
       </c>
       <c r="M7" t="n">
-        <v>265.6288080979551</v>
+        <v>265.6288080979552</v>
       </c>
       <c r="N7" t="n">
-        <v>259.3127487509646</v>
+        <v>259.3127487509647</v>
       </c>
       <c r="O7" t="n">
-        <v>239.5172944561276</v>
+        <v>239.5172944561277</v>
       </c>
       <c r="P7" t="n">
         <v>204.9484232984512</v>
@@ -31469,16 +31469,16 @@
         <v>141.8956649881265</v>
       </c>
       <c r="R7" t="n">
-        <v>76.19324275662507</v>
+        <v>76.19324275662508</v>
       </c>
       <c r="S7" t="n">
-        <v>29.53142870288116</v>
+        <v>29.53142870288117</v>
       </c>
       <c r="T7" t="n">
-        <v>7.240360714843061</v>
+        <v>7.240360714843062</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0924301367852307</v>
+        <v>0.09243013678523071</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31524,25 +31524,25 @@
         <v>145.6403241227262</v>
       </c>
       <c r="J8" t="n">
-        <v>320.6287649182604</v>
+        <v>320.6287649182603</v>
       </c>
       <c r="K8" t="n">
-        <v>480.5394041793978</v>
+        <v>480.5394041793977</v>
       </c>
       <c r="L8" t="n">
-        <v>596.1516230853282</v>
+        <v>596.1516230853281</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027922</v>
+        <v>663.3335468027921</v>
       </c>
       <c r="N8" t="n">
-        <v>674.0669770839334</v>
+        <v>674.0669770839332</v>
       </c>
       <c r="O8" t="n">
         <v>636.5023321712724</v>
       </c>
       <c r="P8" t="n">
-        <v>543.2400145062753</v>
+        <v>543.2400145062752</v>
       </c>
       <c r="Q8" t="n">
         <v>407.9506271086971</v>
@@ -31551,7 +31551,7 @@
         <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>86.08466081179233</v>
+        <v>86.08466081179232</v>
       </c>
       <c r="T8" t="n">
         <v>16.53694361837063</v>
@@ -31603,22 +31603,22 @@
         <v>69.59146383586115</v>
       </c>
       <c r="J9" t="n">
-        <v>190.9642958583803</v>
+        <v>190.9642958583802</v>
       </c>
       <c r="K9" t="n">
-        <v>326.3883979675032</v>
+        <v>326.3883979675031</v>
       </c>
       <c r="L9" t="n">
-        <v>438.8694798973639</v>
+        <v>438.8694798973638</v>
       </c>
       <c r="M9" t="n">
-        <v>512.1399829041653</v>
+        <v>512.1399829041652</v>
       </c>
       <c r="N9" t="n">
-        <v>525.694804331558</v>
+        <v>525.6948043315579</v>
       </c>
       <c r="O9" t="n">
-        <v>480.9080431470012</v>
+        <v>480.9080431470011</v>
       </c>
       <c r="P9" t="n">
         <v>385.9711022274806</v>
@@ -31630,13 +31630,13 @@
         <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.54392985284991</v>
+        <v>37.5439298528499</v>
       </c>
       <c r="T9" t="n">
         <v>8.147077103841575</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1329773194315819</v>
+        <v>0.1329773194315818</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31700,10 +31700,10 @@
         <v>239.5172944561277</v>
       </c>
       <c r="P10" t="n">
-        <v>204.9484232984513</v>
+        <v>204.9484232984512</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.8956649881266</v>
+        <v>141.8956649881265</v>
       </c>
       <c r="R10" t="n">
         <v>76.19324275662508</v>
@@ -31712,10 +31712,10 @@
         <v>29.53142870288117</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843063</v>
+        <v>7.240360714843062</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09243013678523072</v>
+        <v>0.09243013678523071</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>328.9038320421819</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32311,31 +32311,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32566,13 +32566,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>164.9290651940687</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>592.1874941409601</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>468.3778278510275</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
         <v>163.1438255932938</v>
@@ -34231,19 +34231,19 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>74.84835158000359</v>
+        <v>243.9449667520774</v>
       </c>
       <c r="K2" t="n">
-        <v>163.429305116157</v>
+        <v>315.1028144241332</v>
       </c>
       <c r="L2" t="n">
-        <v>447.0541449741277</v>
+        <v>240.0230113315071</v>
       </c>
       <c r="M2" t="n">
-        <v>647.4981915352465</v>
+        <v>299.0611783410131</v>
       </c>
       <c r="N2" t="n">
-        <v>647.4981915352465</v>
+        <v>308.5607133692782</v>
       </c>
       <c r="O2" t="n">
         <v>277.8951710269035</v>
       </c>
       <c r="P2" t="n">
-        <v>202.3276033223266</v>
+        <v>524.1263114938092</v>
       </c>
       <c r="Q2" t="n">
-        <v>103.2802639586414</v>
+        <v>315.5952546185461</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>39.52180169138521</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>151.662274559733</v>
+        <v>25.57123921932421</v>
       </c>
       <c r="K3" t="n">
         <v>122.649588151797</v>
       </c>
       <c r="L3" t="n">
-        <v>582.5482980840966</v>
+        <v>394.7322603618254</v>
       </c>
       <c r="M3" t="n">
-        <v>619.0679568452075</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="N3" t="n">
         <v>288.2160307407405</v>
       </c>
       <c r="O3" t="n">
-        <v>241.2171229812715</v>
+        <v>635.0794422580011</v>
       </c>
       <c r="P3" t="n">
-        <v>492.5324261689369</v>
+        <v>174.0696575289998</v>
       </c>
       <c r="Q3" t="n">
-        <v>65.9375255168697</v>
+        <v>276.0148132527188</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>139.582860391574</v>
+        <v>139.5828603915741</v>
       </c>
       <c r="K5" t="n">
-        <v>260.4495531344171</v>
+        <v>260.4495531344172</v>
       </c>
       <c r="L5" t="n">
         <v>360.3852081153408</v>
       </c>
       <c r="M5" t="n">
-        <v>432.9873135755192</v>
+        <v>432.9873135755194</v>
       </c>
       <c r="N5" t="n">
         <v>444.6539134873423</v>
       </c>
       <c r="O5" t="n">
-        <v>406.4041207495856</v>
+        <v>406.4041207495866</v>
       </c>
       <c r="P5" t="n">
         <v>312.0070187510057</v>
       </c>
       <c r="Q5" t="n">
-        <v>185.6449372342475</v>
+        <v>185.6449372342476</v>
       </c>
       <c r="R5" t="n">
-        <v>21.71629760961983</v>
+        <v>21.71629760961986</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>190.2177045321224</v>
+        <v>64.12666919171355</v>
       </c>
       <c r="K6" t="n">
-        <v>362.3108833671845</v>
+        <v>453.0121960057227</v>
       </c>
       <c r="L6" t="n">
         <v>300.3151001174896</v>
@@ -35029,13 +35029,13 @@
         <v>394.3530922482246</v>
       </c>
       <c r="O6" t="n">
-        <v>338.3117987025566</v>
+        <v>338.3117987025567</v>
       </c>
       <c r="P6" t="n">
-        <v>251.9966948131503</v>
+        <v>287.3864175150209</v>
       </c>
       <c r="Q6" t="n">
-        <v>328.1069739656113</v>
+        <v>328.1069739656114</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>26.4456821797836</v>
+        <v>26.44568217978362</v>
       </c>
       <c r="K7" t="n">
         <v>174.6066995266583</v>
@@ -35102,10 +35102,10 @@
         <v>279.5237680912597</v>
       </c>
       <c r="M7" t="n">
-        <v>305.2126850597957</v>
+        <v>305.2126850597958</v>
       </c>
       <c r="N7" t="n">
-        <v>303.4449211301932</v>
+        <v>303.4449211301933</v>
       </c>
       <c r="O7" t="n">
         <v>264.1024223701673</v>
@@ -35114,7 +35114,7 @@
         <v>202.2269825633447</v>
       </c>
       <c r="Q7" t="n">
-        <v>55.73362173643211</v>
+        <v>55.73362173643214</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35178,25 +35178,25 @@
         <v>260.4495531344172</v>
       </c>
       <c r="L8" t="n">
-        <v>360.385208115341</v>
+        <v>360.3852081153408</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755195</v>
+        <v>432.9873135755194</v>
       </c>
       <c r="N8" t="n">
-        <v>444.6539134873424</v>
+        <v>444.6539134873423</v>
       </c>
       <c r="O8" t="n">
         <v>406.4041207495857</v>
       </c>
       <c r="P8" t="n">
-        <v>312.0070187510058</v>
+        <v>312.0070187510057</v>
       </c>
       <c r="Q8" t="n">
         <v>185.6449372342476</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961989</v>
+        <v>21.71629760961986</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>64.12666919171357</v>
+        <v>190.2177045321224</v>
       </c>
       <c r="K9" t="n">
-        <v>188.5469589931442</v>
+        <v>362.3108833671845</v>
       </c>
       <c r="L9" t="n">
-        <v>300.3151001174897</v>
+        <v>300.3151001174896</v>
       </c>
       <c r="M9" t="n">
-        <v>370.005948982147</v>
+        <v>370.0059489821469</v>
       </c>
       <c r="N9" t="n">
-        <v>394.3530922482247</v>
+        <v>394.3530922482246</v>
       </c>
       <c r="O9" t="n">
-        <v>338.3117987025568</v>
+        <v>338.3117987025567</v>
       </c>
       <c r="P9" t="n">
-        <v>551.8516545275991</v>
+        <v>251.9966948131503</v>
       </c>
       <c r="Q9" t="n">
         <v>328.1069739656114</v>
@@ -35330,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.44568217978363</v>
+        <v>26.44568217978362</v>
       </c>
       <c r="K10" t="n">
         <v>174.6066995266583</v>
@@ -35348,10 +35348,10 @@
         <v>264.1024223701673</v>
       </c>
       <c r="P10" t="n">
-        <v>202.2269825633448</v>
+        <v>202.2269825633447</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.73362173643217</v>
+        <v>55.73362173643214</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462702</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,16 +35731,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35907,7 +35907,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36214,13 +36214,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>22.33282074962425</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>453.6331143610859</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
         <v>20.54758114884936</v>
@@ -37879,7 +37879,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
